--- a/Analytics/E0/Goalmins_e0.xlsx
+++ b/Analytics/E0/Goalmins_e0.xlsx
@@ -82,73 +82,73 @@
     <t>20</t>
   </si>
   <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
     <t>Aston Villa</t>
   </si>
   <si>
-    <t>Sheffield United</t>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Man United</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Man City</t>
   </si>
   <si>
     <t>Chelsea</t>
   </si>
   <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Tottenham</t>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>Nottm Forest</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
   </si>
   <si>
     <t>Newcastle</t>
   </si>
   <si>
-    <t>Luton</t>
-  </si>
-  <si>
-    <t>Man City</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Brentford</t>
-  </si>
-  <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Nottm Forest</t>
-  </si>
-  <si>
-    <t>Wolves</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Man United</t>
-  </si>
-  <si>
-    <t>Burnley</t>
-  </si>
-  <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>West Ham</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
     <t>AwayTeam</t>
   </si>
   <si>
     <t>SUM(TGM)</t>
   </si>
   <si>
-    <t>SUM(TGM) / 38</t>
+    <t>SUM(TGM) / 10</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>4045.0</v>
+        <v>1163.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>3922.0</v>
+        <v>1128.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>3534.0</v>
+        <v>970.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>3532.0</v>
+        <v>919.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>3520.0</v>
+        <v>892.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>3496.0</v>
+        <v>803.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>3493.0</v>
+        <v>796.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>3371.0</v>
+        <v>754.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>3265.0</v>
+        <v>749.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>3240.0</v>
+        <v>680.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>3231.0</v>
+        <v>645.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>3126.0</v>
+        <v>642.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>3045.0</v>
+        <v>635.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>3037.0</v>
+        <v>545.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>3025.0</v>
+        <v>529.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>3018.0</v>
+        <v>501.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>2990.0</v>
+        <v>497.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>2891.0</v>
+        <v>417.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>2789.0</v>
+        <v>383.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>2225.0</v>
+        <v>356.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C2" t="n">
-        <v>4212.0</v>
+        <v>1094.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>3956.0</v>
+        <v>1010.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>3906.0</v>
+        <v>878.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
-        <v>3759.0</v>
+        <v>806.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
-        <v>3480.0</v>
+        <v>775.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>3434.0</v>
+        <v>756.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>3429.0</v>
+        <v>725.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>3418.0</v>
+        <v>699.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>3376.0</v>
+        <v>691.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>3280.0</v>
+        <v>647.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>3195.0</v>
+        <v>627.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C13" t="n">
-        <v>3106.0</v>
+        <v>622.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
-        <v>3076.0</v>
+        <v>615.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
-        <v>3038.0</v>
+        <v>615.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>2902.0</v>
+        <v>611.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
-        <v>2854.0</v>
+        <v>593.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>2830.0</v>
+        <v>580.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>2656.0</v>
+        <v>564.0</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>2472.0</v>
+        <v>564.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>2416.0</v>
+        <v>532.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>7708.0</v>
+        <v>2138.0</v>
       </c>
       <c r="D2" t="n">
-        <v>202.8421052631579</v>
+        <v>213.8</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>7449.0</v>
+        <v>1778.0</v>
       </c>
       <c r="D3" t="n">
-        <v>196.02631578947367</v>
+        <v>177.8</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>7351.0</v>
+        <v>1674.0</v>
       </c>
       <c r="D4" t="n">
-        <v>193.44736842105263</v>
+        <v>167.4</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
-        <v>7293.0</v>
+        <v>1591.0</v>
       </c>
       <c r="D5" t="n">
-        <v>191.92105263157896</v>
+        <v>159.1</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>6896.0</v>
+        <v>1566.0</v>
       </c>
       <c r="D6" t="n">
-        <v>181.47368421052633</v>
+        <v>156.6</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>6875.0</v>
+        <v>1507.0</v>
       </c>
       <c r="D7" t="n">
-        <v>180.92105263157896</v>
+        <v>150.7</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>6745.0</v>
+        <v>1502.0</v>
       </c>
       <c r="D8" t="n">
-        <v>177.5</v>
+        <v>150.2</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>6695.0</v>
+        <v>1453.0</v>
       </c>
       <c r="D9" t="n">
-        <v>176.18421052631578</v>
+        <v>145.3</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>6651.0</v>
+        <v>1430.0</v>
       </c>
       <c r="D10" t="n">
-        <v>175.02631578947367</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>6443.0</v>
+        <v>1405.0</v>
       </c>
       <c r="D11" t="n">
-        <v>169.55263157894737</v>
+        <v>140.5</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>6426.0</v>
+        <v>1398.0</v>
       </c>
       <c r="D12" t="n">
-        <v>169.10526315789474</v>
+        <v>139.8</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>6325.0</v>
+        <v>1360.0</v>
       </c>
       <c r="D13" t="n">
-        <v>166.44736842105263</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>6188.0</v>
+        <v>1351.0</v>
       </c>
       <c r="D14" t="n">
-        <v>162.8421052631579</v>
+        <v>135.1</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>6142.0</v>
+        <v>1276.0</v>
       </c>
       <c r="D15" t="n">
-        <v>161.6315789473684</v>
+        <v>127.6</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>6096.0</v>
+        <v>1257.0</v>
       </c>
       <c r="D16" t="n">
-        <v>160.42105263157896</v>
+        <v>125.7</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
-        <v>6094.0</v>
+        <v>1238.0</v>
       </c>
       <c r="D17" t="n">
-        <v>160.3684210526316</v>
+        <v>123.8</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>6075.0</v>
+        <v>1109.0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.8684210526316</v>
+        <v>110.9</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>5980.0</v>
+        <v>1074.0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.3684210526316</v>
+        <v>107.4</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C20" t="n">
-        <v>5461.0</v>
+        <v>981.0</v>
       </c>
       <c r="D20" t="n">
-        <v>143.71052631578948</v>
+        <v>98.1</v>
       </c>
     </row>
     <row r="21">
@@ -969,10 +969,10 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>4697.0</v>
+        <v>920.0</v>
       </c>
       <c r="D21" t="n">
-        <v>123.60526315789474</v>
+        <v>92.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/E0/Goalmins_e0.xlsx
+++ b/Analytics/E0/Goalmins_e0.xlsx
@@ -88,58 +88,58 @@
     <t>Wolves</t>
   </si>
   <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
     <t>Arsenal</t>
   </si>
   <si>
-    <t>Tottenham</t>
-  </si>
-  <si>
-    <t>Brighton</t>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Man United</t>
+  </si>
+  <si>
+    <t>Man City</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
   </si>
   <si>
     <t>Everton</t>
   </si>
   <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>West Ham</t>
-  </si>
-  <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>Southampton</t>
-  </si>
-  <si>
-    <t>Man United</t>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Nottm Forest</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
   </si>
   <si>
     <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Man City</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
-    <t>Leicester</t>
-  </si>
-  <si>
-    <t>Nottm Forest</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Newcastle</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>1163.0</v>
+        <v>1768.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>1128.0</v>
+        <v>1535.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>970.0</v>
+        <v>1524.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>919.0</v>
+        <v>1333.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>892.0</v>
+        <v>1285.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>803.0</v>
+        <v>1250.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>796.0</v>
+        <v>1229.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>754.0</v>
+        <v>1212.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>749.0</v>
+        <v>1179.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>680.0</v>
+        <v>1149.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>645.0</v>
+        <v>1120.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>642.0</v>
+        <v>1119.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>635.0</v>
+        <v>1014.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>545.0</v>
+        <v>994.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>529.0</v>
+        <v>967.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>501.0</v>
+        <v>943.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>497.0</v>
+        <v>936.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>417.0</v>
+        <v>812.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>383.0</v>
+        <v>803.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>356.0</v>
+        <v>802.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>1094.0</v>
+        <v>1597.0</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>1010.0</v>
+        <v>1560.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>878.0</v>
+        <v>1559.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0</v>
+        <v>1348.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n">
-        <v>775.0</v>
+        <v>1332.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>756.0</v>
+        <v>1276.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>725.0</v>
+        <v>1244.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C9" t="n">
-        <v>699.0</v>
+        <v>1162.0</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>691.0</v>
+        <v>1144.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C11" t="n">
-        <v>647.0</v>
+        <v>1141.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>627.0</v>
+        <v>1080.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>622.0</v>
+        <v>1005.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C14" t="n">
-        <v>615.0</v>
+        <v>995.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>615.0</v>
+        <v>994.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>611.0</v>
+        <v>979.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" t="n">
-        <v>593.0</v>
+        <v>965.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
-        <v>580.0</v>
+        <v>955.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C19" t="n">
-        <v>564.0</v>
+        <v>936.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C20" t="n">
-        <v>564.0</v>
+        <v>890.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C21" t="n">
-        <v>532.0</v>
+        <v>812.0</v>
       </c>
     </row>
   </sheetData>
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>2138.0</v>
+        <v>3095.0</v>
       </c>
       <c r="D2" t="n">
-        <v>213.8</v>
+        <v>309.5</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
-        <v>1778.0</v>
+        <v>2809.0</v>
       </c>
       <c r="D3" t="n">
-        <v>177.8</v>
+        <v>280.9</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>1674.0</v>
+        <v>2733.0</v>
       </c>
       <c r="D4" t="n">
-        <v>167.4</v>
+        <v>273.3</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>1591.0</v>
+        <v>2609.0</v>
       </c>
       <c r="D5" t="n">
-        <v>159.1</v>
+        <v>260.9</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>1566.0</v>
+        <v>2573.0</v>
       </c>
       <c r="D6" t="n">
-        <v>156.6</v>
+        <v>257.3</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>1507.0</v>
+        <v>2467.0</v>
       </c>
       <c r="D7" t="n">
-        <v>150.7</v>
+        <v>246.7</v>
       </c>
     </row>
     <row r="8">
@@ -787,10 +787,10 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>1502.0</v>
+        <v>2460.0</v>
       </c>
       <c r="D8" t="n">
-        <v>150.2</v>
+        <v>246.0</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>1453.0</v>
+        <v>2309.0</v>
       </c>
       <c r="D9" t="n">
-        <v>145.3</v>
+        <v>230.9</v>
       </c>
     </row>
     <row r="10">
@@ -815,10 +815,10 @@
         <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>1430.0</v>
+        <v>2205.0</v>
       </c>
       <c r="D10" t="n">
-        <v>143.0</v>
+        <v>220.5</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C11" t="n">
-        <v>1405.0</v>
+        <v>2187.0</v>
       </c>
       <c r="D11" t="n">
-        <v>140.5</v>
+        <v>218.7</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>1398.0</v>
+        <v>2184.0</v>
       </c>
       <c r="D12" t="n">
-        <v>139.8</v>
+        <v>218.4</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>1360.0</v>
+        <v>2175.0</v>
       </c>
       <c r="D13" t="n">
-        <v>136.0</v>
+        <v>217.5</v>
       </c>
     </row>
     <row r="14">
@@ -871,10 +871,10 @@
         <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>1351.0</v>
+        <v>2156.0</v>
       </c>
       <c r="D14" t="n">
-        <v>135.1</v>
+        <v>215.6</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C15" t="n">
-        <v>1276.0</v>
+        <v>2134.0</v>
       </c>
       <c r="D15" t="n">
-        <v>127.6</v>
+        <v>213.4</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>1257.0</v>
+        <v>2128.0</v>
       </c>
       <c r="D16" t="n">
-        <v>125.7</v>
+        <v>212.8</v>
       </c>
     </row>
     <row r="17">
@@ -913,10 +913,10 @@
         <v>32</v>
       </c>
       <c r="C17" t="n">
-        <v>1238.0</v>
+        <v>2114.0</v>
       </c>
       <c r="D17" t="n">
-        <v>123.8</v>
+        <v>211.4</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>1109.0</v>
+        <v>1953.0</v>
       </c>
       <c r="D18" t="n">
-        <v>110.9</v>
+        <v>195.3</v>
       </c>
     </row>
     <row r="19">
@@ -941,10 +941,10 @@
         <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>1074.0</v>
+        <v>1947.0</v>
       </c>
       <c r="D19" t="n">
-        <v>107.4</v>
+        <v>194.7</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" t="n">
-        <v>981.0</v>
+        <v>1931.0</v>
       </c>
       <c r="D20" t="n">
-        <v>98.1</v>
+        <v>193.1</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C21" t="n">
-        <v>920.0</v>
+        <v>1779.0</v>
       </c>
       <c r="D21" t="n">
-        <v>92.0</v>
+        <v>177.9</v>
       </c>
     </row>
   </sheetData>
